--- a/MainTop/26.11.2024/таня_озон/печать_а5.xlsx
+++ b/MainTop/26.11.2024/таня_озон/печать_а5.xlsx
@@ -246,7 +246,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -441,7 +441,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/MainTop/26.11.2024/таня_озон/печать_а5.xlsx
+++ b/MainTop/26.11.2024/таня_озон/печать_а5.xlsx
@@ -43,10 +43,10 @@
     <t xml:space="preserve">сумма</t>
   </si>
   <si>
+    <t xml:space="preserve">Тип упорядочить</t>
+  </si>
+  <si>
     <t xml:space="preserve">Num_Copies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тип упорядочить</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Зайка балерина</t>
@@ -246,7 +246,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -277,10 +277,10 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>8</v>
       </c>
     </row>
